--- a/data/trans_camb/P37-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P37-Habitat-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>2.91193791185316</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>22.59428090375485</v>
+        <v>22.59428090375484</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>4.606828832299953</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6323710335101577</v>
+        <v>0.957022209580432</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.834819751830559</v>
+        <v>-1.910095327662015</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>12.32660555529417</v>
+        <v>12.69791163162792</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.5840310641025389</v>
+        <v>0.07505295741313528</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.262669582807628</v>
+        <v>-1.323271623624258</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>18.37987889344489</v>
+        <v>18.25701027599549</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.578674073866794</v>
+        <v>1.800345837611971</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.2301302252028346</v>
+        <v>-0.4204397285237494</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>16.90201128581554</v>
+        <v>16.90950943200421</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.819431296417886</v>
+        <v>9.007948981456909</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.931557304398251</v>
+        <v>5.80984742151891</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>21.36911439599946</v>
+        <v>21.26439932891162</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8.620733097771787</v>
+        <v>7.987028289260699</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>6.839160516997557</v>
+        <v>7.193407220755349</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>26.77936272057296</v>
+        <v>26.41156673629074</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>7.326870850620539</v>
+        <v>7.52188042625965</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>5.181250899410593</v>
+        <v>5.44764940023036</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>22.95765480700819</v>
+        <v>22.64434141601825</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.03792960156353806</v>
+        <v>0.05430777207402285</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1073937280575185</v>
+        <v>-0.1169356791578228</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.7316711009840643</v>
+        <v>0.7381692643843822</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.0273445359823563</v>
+        <v>0.005667881060751487</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.07357317732213824</v>
+        <v>-0.0822086978013005</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>1.05323419463449</v>
+        <v>1.057755705652979</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.09980898695902221</v>
+        <v>0.1100838989667434</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.0167665651210018</v>
+        <v>-0.02450078793574344</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>1.015598861439287</v>
+        <v>1.023364878897705</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.6726049151515973</v>
+        <v>0.6726487933063923</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.4547901330479082</v>
+        <v>0.4424947246062435</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.603462842553946</v>
+        <v>1.607433488751075</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.6574676213709342</v>
+        <v>0.6127166226723977</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5258436170155727</v>
+        <v>0.544179925522386</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.119919500441567</v>
+        <v>2.086163434766164</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5293540477756189</v>
+        <v>0.5535511460555272</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3832683804972348</v>
+        <v>0.4057859786665052</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.693241012651534</v>
+        <v>1.672780906232556</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>1.148369064453131</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>16.11859202440128</v>
+        <v>16.11859202440127</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1361065274678397</v>
+        <v>0.5442783082322405</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.469841617120465</v>
+        <v>-2.905197170438871</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>8.614508331365121</v>
+        <v>9.235717869426061</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.089092893248435</v>
+        <v>-1.200259289139708</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.747505973805241</v>
+        <v>-1.810648865954804</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>15.82105636362572</v>
+        <v>15.93858600155943</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.765804660968613</v>
+        <v>0.6065805311866864</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.9561105574965926</v>
+        <v>-1.141303383862066</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>13.57848455474391</v>
+        <v>13.47951121195675</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.986273978449126</v>
+        <v>6.829651494589275</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.835914190389508</v>
+        <v>3.317529688181094</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>16.37191351117923</v>
+        <v>16.4316317542973</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.032556329869147</v>
+        <v>5.53329120004203</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>5.505475057949551</v>
+        <v>5.044957765348514</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>22.78482346519208</v>
+        <v>22.71276136200967</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>5.369460049790235</v>
+        <v>5.387753773158196</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.648702163270181</v>
+        <v>3.416135437232459</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>18.41711439124393</v>
+        <v>18.70582470709847</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>0.07589781223865023</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>1.065307233438927</v>
+        <v>1.065307233438926</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.00833768004698158</v>
+        <v>0.02159865326516174</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1554760814502192</v>
+        <v>-0.1833841735346491</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.5475737219266903</v>
+        <v>0.5798161156294426</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.06100061420864831</v>
+        <v>-0.06786000919726974</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.09745620724456666</v>
+        <v>-0.09776824644557093</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8658994863796446</v>
+        <v>0.8845215952559994</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04639182549716849</v>
+        <v>0.03696505483043182</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.05976365543709817</v>
+        <v>-0.07012086672461845</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.8211452346154239</v>
+        <v>0.8087616021176499</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.5651651758247279</v>
+        <v>0.531056520719376</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.3160889081152636</v>
+        <v>0.2630467934034675</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.334514328693659</v>
+        <v>1.333038895590569</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.4205564553535748</v>
+        <v>0.369658481072864</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3795750705962432</v>
+        <v>0.3380410366111447</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.640228044181511</v>
+        <v>1.569257336174613</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.377978633687194</v>
+        <v>0.3863452240897559</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2671739323195191</v>
+        <v>0.2450226909647308</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.319158216853481</v>
+        <v>1.346158258040625</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.345407041579012</v>
+        <v>-1.227255583184383</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.5475735271720161</v>
+        <v>-0.3895901709296039</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>12.41549756037871</v>
+        <v>12.34987902729596</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.80125990054214</v>
+        <v>-2.90632569616215</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-4.36148849122078</v>
+        <v>-4.394771399465671</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>11.48578226966724</v>
+        <v>12.09329927976096</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.169420933413679</v>
+        <v>-1.047426483393726</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.131064210831972</v>
+        <v>-1.343607511862185</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>13.26215227835749</v>
+        <v>13.34388655193669</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.721469698860131</v>
+        <v>6.31319392277817</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.118242300286553</v>
+        <v>7.309228752083389</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>21.08241614706405</v>
+        <v>20.69827523050999</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.992441680460894</v>
+        <v>5.04813388754652</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.40460603448669</v>
+        <v>3.480297942573388</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>19.84474451874829</v>
+        <v>19.96120636503367</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>4.768581268330201</v>
+        <v>4.356133597534062</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>4.421299834829869</v>
+        <v>4.314088213282914</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>18.97944834102125</v>
+        <v>19.35004815062558</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>-0.02728198514347848</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.9870287995751015</v>
+        <v>0.9870287995751011</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.1312559245757959</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.08788368439833641</v>
+        <v>-0.08960451474431087</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.03647216752245833</v>
+        <v>-0.02419106156630945</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.7904814143487902</v>
+        <v>0.8162838672248597</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1520707508679397</v>
+        <v>-0.1614194983257422</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2449023803805744</v>
+        <v>-0.2418219317458958</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6396434389043679</v>
+        <v>0.6660204553539804</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.07617974431315999</v>
+        <v>-0.0665756363494714</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.07603757831577847</v>
+        <v>-0.08396603393672888</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.8230695628349632</v>
+        <v>0.8314192649268978</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.6210354648577214</v>
+        <v>0.548798726036582</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.6534206111230423</v>
+        <v>0.6463506813146663</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.907679892173882</v>
+        <v>1.863345450794076</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.3503774052429156</v>
+        <v>0.3578005460214455</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2401615064453215</v>
+        <v>0.2402481444887411</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.445389098851705</v>
+        <v>1.482901137417692</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3508510171152048</v>
+        <v>0.3263358114851265</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.335314225173074</v>
+        <v>0.3234379037142585</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.432933515638591</v>
+        <v>1.467290079094709</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>1.981167196477096</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>22.03828393035488</v>
+        <v>22.03828393035489</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>2.220511183926244</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.4116009518929356</v>
+        <v>0.3892721863127907</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.261222417933373</v>
+        <v>-1.083785318321248</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>18.35597113876774</v>
+        <v>18.46878085488447</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.623187012554121</v>
+        <v>-0.9313487131900161</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.291809474646605</v>
+        <v>-1.795568860226318</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>19.00338650123649</v>
+        <v>19.07527911440366</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.6628300971047117</v>
+        <v>0.5315202250933166</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.7134343550233054</v>
+        <v>-0.6697527106855197</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>19.83405669999191</v>
+        <v>19.52790342702991</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.347568780276823</v>
+        <v>7.218013302300033</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.919242180552709</v>
+        <v>5.12489813000229</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>25.66508705990668</v>
+        <v>25.36917443860905</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.205313240883328</v>
+        <v>5.974895022461</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>4.601152405368214</v>
+        <v>5.035461204255815</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>25.90309615426144</v>
+        <v>25.44673118870307</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>5.451777524756293</v>
+        <v>5.441585108391101</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>4.086696732172666</v>
+        <v>4.079964236409277</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>24.68005878733524</v>
+        <v>24.74708204250534</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.1475556172819484</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>1.64139230397153</v>
+        <v>1.641392303971531</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.1392002546034267</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.0287946668386684</v>
+        <v>0.02698460451179022</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.08381814844170134</v>
+        <v>-0.08111462048991792</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>1.239159835296183</v>
+        <v>1.182928153403457</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.09549524478826718</v>
+        <v>-0.05590362170449106</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1364006960240145</v>
+        <v>-0.0935201227859581</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>1.031767762253068</v>
+        <v>1.058932637210909</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04014710361827831</v>
+        <v>0.03996129547074063</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.04497979684010081</v>
+        <v>-0.04336932429576244</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>1.236142083444925</v>
+        <v>1.214026273977735</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.6095463425817472</v>
+        <v>0.6007708341658102</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.4133086960294702</v>
+        <v>0.431709248838555</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2.188113452402717</v>
+        <v>2.121146426426086</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.3494670232433552</v>
+        <v>0.4094629904050161</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3124377981356344</v>
+        <v>0.3640297067860516</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.822936956815083</v>
+        <v>1.793107735752039</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3979286257927627</v>
+        <v>0.3984407358521733</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.290113186849284</v>
+        <v>0.2967824008244888</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.817388067203221</v>
+        <v>1.814982100708171</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>1.43962477905723</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>20.14247579865765</v>
+        <v>20.14247579865764</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>3.081377736944521</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>2.066662864563853</v>
+        <v>1.678233219458584</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.2382371858950618</v>
+        <v>0.157865127163647</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>14.99923425729431</v>
+        <v>14.97526304748571</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.53092427151218</v>
+        <v>0.6713603796115081</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.5526820017622955</v>
+        <v>-0.4219226951812126</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>18.30704081997465</v>
+        <v>18.26334300796561</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>1.754171305804118</v>
+        <v>1.822189001810797</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.4213482839946291</v>
+        <v>0.3678184357095275</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>17.33277355551953</v>
+        <v>17.19865432393117</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>5.560444492730539</v>
+        <v>5.615805663469948</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.810136549499639</v>
+        <v>3.557737909968238</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>19.2369276954552</v>
+        <v>18.99112124682175</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4.334288614089346</v>
+        <v>4.361010246280332</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>3.128907262815252</v>
+        <v>3.172140381716091</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>21.99126920591694</v>
+        <v>22.11340602103162</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>4.484371283842456</v>
+        <v>4.349935693944873</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>2.964593087022088</v>
+        <v>2.952018275285796</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>20.0670716100156</v>
+        <v>20.06492336491863</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.09082124470655704</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>1.270723281592714</v>
+        <v>1.270723281592713</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.2070821005813346</v>
@@ -1625,7 +1625,7 @@
         <v>0.1111103237699204</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>1.253267658242007</v>
+        <v>1.253267658242006</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.1400510801098869</v>
+        <v>0.1166073627353098</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.014624158883781</v>
+        <v>0.01094733999383178</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>1.010734129371211</v>
+        <v>1.01300303045903</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.03338309420111905</v>
+        <v>0.040297104321809</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.03463663421613647</v>
+        <v>-0.02505691985330063</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>1.082289051958092</v>
+        <v>1.086622205935507</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.113758755179617</v>
+        <v>0.1167300643530446</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.02653458135921868</v>
+        <v>0.02555549019060015</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>1.108792345404773</v>
+        <v>1.102168826762068</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.4317612924547706</v>
+        <v>0.4231670013994975</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.2851685925371448</v>
+        <v>0.2713911098995596</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.475803111698633</v>
+        <v>1.449892603057037</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.2936103158955018</v>
+        <v>0.2850885625623495</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.2077738678750844</v>
+        <v>0.2091436403650635</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.495241678536936</v>
+        <v>1.496821548607476</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.3182380755514468</v>
+        <v>0.3049544761015344</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.209222654650202</v>
+        <v>0.2100834255324496</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.406977771030939</v>
+        <v>1.411828272725768</v>
       </c>
     </row>
     <row r="34">
